--- a/Deliverables/ReferencesInfo.xlsx
+++ b/Deliverables/ReferencesInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\OneDrive\Ambiente de Trabalho\ISA\Thesis\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D10DD5-9248-4417-95C2-208F595F2E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E93E83D-F787-44C6-973E-86DCCA1410A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{042BECF4-7FB2-421B-AE05-271994ED787D}"/>
   </bookViews>
@@ -36,122 +36,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>A Markov-chain model for assessing heatwaves and droughts in Iberian Peninsula</t>
-  </si>
-  <si>
-    <t>Abrupt increases in Amazonian tree mortality due to drought-fire interactions</t>
-  </si>
-  <si>
     <t>Read</t>
   </si>
   <si>
     <t>Methodology</t>
   </si>
   <si>
-    <t>Assessing the role played by meteorological conditions on the interannual variability of fire activity in four subregions of Iberia</t>
-  </si>
-  <si>
-    <t>Climate change, extreme weather events, air pollution and respiratory helth in Europe</t>
-  </si>
-  <si>
-    <t>Climate drivers of the 2017 devastating fires in Portugal</t>
-  </si>
-  <si>
     <t>Climate Extremes and Compound Hazards in a Warming World</t>
   </si>
   <si>
-    <t>Combined large-scale tropical and subtropical forcing on the severe 2019-2022 drought in South America</t>
-  </si>
-  <si>
-    <t>Compound drought and hot events assessment in Australia using copula functions</t>
-  </si>
-  <si>
-    <t>Co-occurrence of marine and atmoshperic heatwaves with drought conditions and fire activity in the Mediterranean region</t>
-  </si>
-  <si>
-    <t>Dependence of drivers affects risks associated with compound events</t>
-  </si>
-  <si>
-    <t>Evidence of increasing drought severity caused by temperature rise in southern Europe</t>
-  </si>
-  <si>
-    <t>Examining the outstanding Euro-Mediterranean drought of 2021–2022 and its historical context</t>
-  </si>
-  <si>
-    <t>Future climate risk from compound events</t>
-  </si>
-  <si>
-    <t>Generalised drought index a novel multi-scale daily approach for drought assessment</t>
-  </si>
-  <si>
     <t>Heat and Ozone Pollution Waves in Central and South Europe</t>
   </si>
   <si>
-    <t>Heatwaves, droughts, and fires Exploring compound and cascading dry hazards at the pan-European scale</t>
-  </si>
-  <si>
-    <t>Identification of forest vulnerability to droughts in the Iberian Peninsula</t>
-  </si>
-  <si>
-    <t>Impacts of fire prevention strategies in a changing climate</t>
-  </si>
-  <si>
-    <t>June 2017  The Earliest European Summer Mega‐heatwave of Reanalysis Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land atmospheric feedbacks during droughts and heatwaves </t>
-  </si>
-  <si>
-    <t>Lightning-induced fire regime in Portugal based on satellite-derived and in situ data</t>
-  </si>
-  <si>
-    <t>Mapping combined wildfire and heat stress hazards to improve evidence-based decision making</t>
-  </si>
-  <si>
-    <t>Meteorological Droughts in Europe - events and impacts</t>
-  </si>
-  <si>
-    <t>Meteorological droughts in europe</t>
-  </si>
-  <si>
     <t>Mortality Related to Air Pollution with the Moscow Heat</t>
   </si>
   <si>
-    <t>Projections of temperature-related excess mortality under climate change scenarios</t>
-  </si>
-  <si>
-    <t>Review article - Natural hazard risk assessments at the global scale</t>
-  </si>
-  <si>
-    <t>Spatial and compound dependencies in drought and heatwaves in the climate of South-Western Europe</t>
-  </si>
-  <si>
-    <t>The future of extreme meteorological fire danger under climate change scenarios for Iberia</t>
-  </si>
-  <si>
-    <t>The future of Iberian droughts - a deeper analysis based on multi-scenario and a multi-model ensemble approach</t>
-  </si>
-  <si>
-    <t>Top ten European heatwaves since 1950 and their occurrence in the coming decades</t>
-  </si>
-  <si>
-    <t>Wildfire air pollution and daily mortality in a large urban area</t>
-  </si>
-  <si>
-    <t>Wildfire air pollution hazard during the 21st century</t>
-  </si>
-  <si>
-    <t>Wildfire spreading prediction using multimodal data and deep neural network approach</t>
-  </si>
-  <si>
-    <t>Wildfire-specific Fine Particulate Matter and Risk of Hospital Admissions in Urban and Rural Counties</t>
-  </si>
-  <si>
     <t>Results</t>
   </si>
   <si>
@@ -164,24 +68,9 @@
     <t>x</t>
   </si>
   <si>
-    <t>ERA5</t>
-  </si>
-  <si>
     <t>Data Used</t>
   </si>
   <si>
-    <t>statistical analysis (of time-series of precipitation and temperature) into binary states classifying the occurrence of heatwaves and droughts. Markov-chain models.</t>
-  </si>
-  <si>
-    <t>SPI calculation over different time series to monitor drought conditions from shorter periods to longer periods</t>
-  </si>
-  <si>
-    <t>Not relevant for work</t>
-  </si>
-  <si>
-    <t>Wildfire smoke impacts on indoor air quality assessed using crowdsourced data in California</t>
-  </si>
-  <si>
     <t>Important to define air pollution and its risks and prediciton methods</t>
   </si>
   <si>
@@ -887,6 +776,278 @@
       </rPr>
       <t>by Francesca Di Giuseppe</t>
     </r>
+  </si>
+  <si>
+    <t>Accurately estimating biomass burning emissions, which are critical for atmospheric composition analyses and forecasts. It evaluates the Global Fire Assimilation System (GFAS), which relies on satellite-derived FRP data to estimate fire emissions</t>
+  </si>
+  <si>
+    <t>FRP observations from MODIS (detect thermal radiation emitted by active fires); FWI data (calculates fire danger levels based on meteorological parameters such as temperature, humidity, wind speed and precipitation</t>
+  </si>
+  <si>
+    <t>Integration of FWI into GFAS to model fire behavior during periods lacking FRP observations; Prediction of FRP evolution by analyzing the relation between FWI values and observed FRP data; Validation (FWI-based oredictions was tested against historical fire events to assess its accuracy in estimating emissions compared to the traditional persistence approach</t>
+  </si>
+  <si>
+    <t>Integrating FWI into GFAS significantly improved the accuracy of fire emission estimates during periods without direct FRP observations. The FWI-based model effectively captured weather-induced variations in fire activity, reducing the overestimation of fire duration and associated emissions prevalent in the persistence method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/abs/pii/S0013935106000727 </t>
+  </si>
+  <si>
+    <r>
+      <t>Wildfire air pollution and daily mortality in a large urban area</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Sverre Vedal</t>
+    </r>
+  </si>
+  <si>
+    <t>Effects of particulate matter (PM) from wildfires smoke on daily mortality rates in a metropolitan setting. They wanted to determine whether sudden increases in PM concentrations due to wildfire events correspond with immediate rises in daily death counts</t>
+  </si>
+  <si>
+    <t>Particulate matter measurements; Mortality records</t>
+  </si>
+  <si>
+    <t>Data collection (air quality measurements and corresponding daily mortality records during episodes of elevated PM due to wildfire smoke); Statistical analysis (statistical models to assess the relationship between acute PM increases and daily mortality, aiming to detect any significant associations</t>
+  </si>
+  <si>
+    <t>In a population exceeding 2 million, there were no perceptible increases in daily mortality attributable to abrupt and significant rises in PM concentrations from wildfire smoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acp.copernicus.org/articles/17/9223/2017/ </t>
+  </si>
+  <si>
+    <t>Assess how future climate conditions and population changes will influence wildfire activity and the resulting air pollution</t>
+  </si>
+  <si>
+    <t>Climate projections using climate models to simulate future temperature and precipitation patterns, which are critical factors affecting wildfire frequency and intensity; Demographic data incorporated population growth and distribution forecasts to evaluate potential exposure levels to wildfire-related air pollution</t>
+  </si>
+  <si>
+    <t>Modeling wildfire activity (fire models that integrate climate projections to estimate changes in wildfire occurrence and burned areas under various future scenarios); Air pollution estimation (calculated emissions of pollutants, particularly fine particulate matter (PM2.5) from the projected wildfire activites); Exposure assessment (analysis the overlap between projected air pollution levels and population distributions to determine potential health impacts)</t>
+  </si>
+  <si>
+    <t>Increased wildfire activity (climate change is expected to escalate wildfire activity, leading to more frequent and severe fires); Elevated air pollution levels (as a consequence of intensified wildfires, ther will be significant increases in air pollution, notably in PM2.5 concentrations, adversely affecting air quality); Health implications (the rise in wildfire-induced air pollution poses substantial risks to public health, particularly in regions with dense populations</t>
+  </si>
+  <si>
+    <t>important to relate wildfires to pollution events</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wildfire air pollution hazard during the 21st century </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Wolfgang Knorr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/publication/377850261_Wildfire_spreading_prediction_using_multimodal_data_and_deep_neural_network_approach </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wildfire spreading prediction using multimodal data and deep neural network approach </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Dmitrii Shadrin</t>
+    </r>
+  </si>
+  <si>
+    <t>Enhance the accuracy of large-scale wildfire spread predictions over a forecasting horizon of 1 to 5 days. Importance of combining diverse  geospatial data sources and applying sophisticated machine learning models to effectively capture the complex synamics of wildfires propagation</t>
+  </si>
+  <si>
+    <t>Environmental data (vegetation types, fuel moisture levels, and topographical features); Climate data (temperature, humidity, wind speed and direction); Spatial distribution features (geospatial data detailing the spatial arrangement of various environmental factors)</t>
+  </si>
+  <si>
+    <t>Data integration (involved collecting and preprocessing the multimodal datasets to create a unified framework suitable for analysis); Model development (neural network model based on the MA-Net architecture was trained, it is designed to effectively process and analyze the integrated datasets, capturing both spatial and temporal patterns critical for predicting wildfire spread)-, Feature importance analysis</t>
+  </si>
+  <si>
+    <t>Prediction accuracy (high level of accuracy in forecasting wildfire spread over the specified 1 to 5 day horizon); Feature insights (reveals that certain environmental and climatic features, such as wind speed and vegetation type, significantly influence wildfire spread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27648592/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/publication/370467178_Assessing_the_role_played_by_meteorological_conditions_on_the_interannual_variability_of_fire_activity_in_four_subregions_of_Iberia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amir.eng.uci.edu/publications/20_AnnuRev_Earth_Extremes.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24598414/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S2212094723000762 </t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28642628/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/35795228/</t>
+  </si>
+  <si>
+    <r>
+      <t>Particulate Air Pollution from Wildfires in the Western US under Climate Change</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Jia Coco Liu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Impacts of Fine Particulate Matter From Wildfire Smoke on Respiratory and Cardiovascular Health in California </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Alexandra Heaney</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wildfire-specific Fine Particulate Matter and Risk of Hospital Admissions in Urban and Rural Counties </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Jia Coco Liu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assessing the role played by meteorological conditions on the interannual variability of fire activity in four subregions of Iberia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Sílvia A. Nunes</t>
+    </r>
+  </si>
+  <si>
+    <t>Quantify the impact of meteorological factors on the year-to-year variability of wildfire activity in four identified "pyroregions" of Iberia. Seeks to understand regional differeneces in fire dynamics and their relationship with atmospheric conditions</t>
+  </si>
+  <si>
+    <t>Fire activity data (use FRP measurements from the MODIS and Terra satellites to quantify the energy released by active fires); Meteorological data (employed the FWI - indicator of fire danger that integrates various meteorological variables)</t>
+  </si>
+  <si>
+    <t>Regional classification (divided the Iberian Pensinsula into four homogeneous pyroregions); Statistical modeling (statistical model combining a lognormal distribution for the central body of FRP data with GO distributions for the tails, capturing extreme fire events); Model evaluation (compared models with and without FWI as a covariate using statistical tests such as the Anderson-Darling test and Bayes Factor to evaluate improvements in fit and explanatory power</t>
+  </si>
+  <si>
+    <t>Influence of FWI (increase the explained variance of interannual FRP, indicating a stronger meterorological influence in certain parts of Iberia); Regional variablity (meteorological conditions have a more pronounced effect on fire activity in SW and E regions, areas projected to experience significant climate change impacts)</t>
+  </si>
+  <si>
+    <t>used only for extreme events</t>
+  </si>
+  <si>
+    <t>only important if i study ozone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The future of extreme meteorological fire danger under climate change scenarios for Iberia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Virgilio A. Bento</t>
+    </r>
+  </si>
+  <si>
+    <t>Assess the future risk of extreme fire conditions in Iberia under various climate change scenarios. Evaluates how projected changes in temperature, precipitation and other climatic factors cloud influence fire danger in the region</t>
+  </si>
+  <si>
+    <t>Climate model projections to analyze future temperature and precipitation patterns. Application of these pprojections to fire danger indices to estimate future fire risk</t>
+  </si>
+  <si>
+    <t>Statistical analyses to evaluate the relationship between climate variables and fire danger indices. It used climate model outputs to simulate future conditions and assess potential changes in the fire risk</t>
+  </si>
+  <si>
+    <t>Climate change is expected to increase the frequency and intensity of extreme fire conditions in Iberia. This includes higher temperatures and altered precipitation patterns, leading to increased fire risk</t>
+  </si>
+  <si>
+    <t>Estimate future PM2.5 levels directly attributable to wildfires in US counties during fire seasons, comparing present-day conditions with future scenarios under a moderately increasing greenhouse gas emissions scenario</t>
+  </si>
+  <si>
+    <t>Use fire prediction model and the GEOS-Chem 3-D global chemical transport model to estimate PM2.5 levels. They applied these models to both current and projected future climate conditions to assess chnages in wildfire-related air pollution</t>
+  </si>
+  <si>
+    <t>Employed statistical analyses to estimte PM2.5 levels attributable to wildfires. It used climate model projections to simulate future conditions and assess potential changes in air quality due to increased wildfire activity under climate change</t>
+  </si>
+  <si>
+    <t>Under climate change scenarios, PM2.5 levels attributable to wildfires are projected to increase significantly. This increase is expected to lead to more frequent and intense smoke waves, posing greater helth risks to the population</t>
+  </si>
+  <si>
+    <t>Assess the health impacts of wildfire-specific PM2.5 on hospital admissions, focusing on differences between urban and rural counties</t>
+  </si>
+  <si>
+    <t>Hospital admission data for respiratory and cardiovascular diseases, along with air quality data to estimate wildfire-specific PM2.5 levels</t>
+  </si>
+  <si>
+    <t>Statistical analyses to evaluate the relationship between wildfire-specific PM2.5 levelsand hospital admissions, comparing urban and rural counties</t>
+  </si>
+  <si>
+    <t>Short-term exposure to wildfire-specific PM2.5 was associated with na increased risk of hospital admissions for respiratory diseases in the eldery population during severe smoke days</t>
+  </si>
+  <si>
+    <t>only relevant to see statistical analyses</t>
+  </si>
+  <si>
+    <t>Assess the health impacts of PM2.5 from wildfire smoke on hospital visits for respiratory and cardiovascular diseases in California</t>
+  </si>
+  <si>
+    <t>only relevant to see statistical analyses of PM2.5 from wildfire smoke</t>
   </si>
 </sst>
 </file>
@@ -1285,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1966D135-952B-451C-BCD8-1ECB1677C3AC}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,791 +1469,832 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>184</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>163</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>61</v>
+        <v>199</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>66</v>
+        <v>201</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I55" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C59" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:I61">
-    <sortCondition ref="C61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:I34">
+    <sortCondition ref="C34"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I34" r:id="rId1" xr:uid="{0F6ABC7F-6F14-4736-AC20-66162325A7BE}"/>
-    <hyperlink ref="I35" r:id="rId2" xr:uid="{9F65D8F1-E7C1-46A5-AF4E-1623546FFB77}"/>
-    <hyperlink ref="I36" r:id="rId3" xr:uid="{1DDABFF1-B022-4299-850B-07232BFE3ED0}"/>
-    <hyperlink ref="I37" r:id="rId4" xr:uid="{6417E3B8-682F-4DF3-990C-D3086FD28241}"/>
-    <hyperlink ref="I42" r:id="rId5" xr:uid="{1AE3B3FE-1865-4D8C-AAA5-E0227C2B77BE}"/>
-    <hyperlink ref="I45" r:id="rId6" xr:uid="{B52AB270-1372-4E03-B4BB-17B071BB74BC}"/>
-    <hyperlink ref="I38" r:id="rId7" xr:uid="{FE2E1C22-4211-41E3-8E73-92D13B4A8946}"/>
-    <hyperlink ref="I39" r:id="rId8" xr:uid="{4E42FE45-F638-4DC5-9E32-A02B7BAE4CC8}"/>
-    <hyperlink ref="I40" r:id="rId9" xr:uid="{60321455-01C0-42C0-8826-F2862A9A1D55}"/>
-    <hyperlink ref="I41" r:id="rId10" xr:uid="{CBE8C84A-582C-4A05-A90B-E6091FF24978}"/>
-    <hyperlink ref="I43" r:id="rId11" xr:uid="{5FE2C5B8-4C01-4FA3-B763-6F219474129D}"/>
-    <hyperlink ref="I44" r:id="rId12" xr:uid="{C2E75D4D-1CB5-41C3-8B4E-8B58349650D1}"/>
-    <hyperlink ref="I46" r:id="rId13" xr:uid="{8B2D8558-86E5-49E9-ADFB-829C7AC7D47B}"/>
-    <hyperlink ref="I47" r:id="rId14" xr:uid="{8785F880-31EE-42F9-88C2-17DA621CA0FA}"/>
-    <hyperlink ref="I48" r:id="rId15" xr:uid="{00B9EA06-7199-4AF5-B2C5-D8F04BB711A4}"/>
-    <hyperlink ref="I49" r:id="rId16" xr:uid="{B076DE21-93CA-456A-93E6-3F7ECFEFCDC8}"/>
-    <hyperlink ref="I50" r:id="rId17" xr:uid="{D3DA3E70-F9F6-4293-A8E1-A23D554445B9}"/>
-    <hyperlink ref="I51" r:id="rId18" xr:uid="{01B3BB38-DB11-4D03-8979-C8508B8EE24A}"/>
-    <hyperlink ref="I52" r:id="rId19" xr:uid="{DBE10F2C-6141-4543-A042-0C6B2E89409D}"/>
-    <hyperlink ref="I53" r:id="rId20" xr:uid="{389BC9E7-3512-422F-8A9B-0ACBC0BC1843}"/>
-    <hyperlink ref="I54" r:id="rId21" xr:uid="{84AC78B4-51E1-43F8-AF1B-D4DED83897CA}"/>
-    <hyperlink ref="I55" r:id="rId22" xr:uid="{A7FF3621-1B77-447D-AD85-D058AB074E44}"/>
-    <hyperlink ref="I56" r:id="rId23" xr:uid="{B70F3549-78E1-468B-AC76-EEFCA62CCB48}"/>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{0F6ABC7F-6F14-4736-AC20-66162325A7BE}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{9F65D8F1-E7C1-46A5-AF4E-1623546FFB77}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{1DDABFF1-B022-4299-850B-07232BFE3ED0}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{6417E3B8-682F-4DF3-990C-D3086FD28241}"/>
+    <hyperlink ref="I16" r:id="rId5" xr:uid="{1AE3B3FE-1865-4D8C-AAA5-E0227C2B77BE}"/>
+    <hyperlink ref="I19" r:id="rId6" xr:uid="{B52AB270-1372-4E03-B4BB-17B071BB74BC}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{FE2E1C22-4211-41E3-8E73-92D13B4A8946}"/>
+    <hyperlink ref="I13" r:id="rId8" xr:uid="{4E42FE45-F638-4DC5-9E32-A02B7BAE4CC8}"/>
+    <hyperlink ref="I14" r:id="rId9" xr:uid="{60321455-01C0-42C0-8826-F2862A9A1D55}"/>
+    <hyperlink ref="I15" r:id="rId10" xr:uid="{CBE8C84A-582C-4A05-A90B-E6091FF24978}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{5FE2C5B8-4C01-4FA3-B763-6F219474129D}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{C2E75D4D-1CB5-41C3-8B4E-8B58349650D1}"/>
+    <hyperlink ref="I20" r:id="rId13" xr:uid="{8B2D8558-86E5-49E9-ADFB-829C7AC7D47B}"/>
+    <hyperlink ref="I21" r:id="rId14" xr:uid="{8785F880-31EE-42F9-88C2-17DA621CA0FA}"/>
+    <hyperlink ref="I22" r:id="rId15" xr:uid="{00B9EA06-7199-4AF5-B2C5-D8F04BB711A4}"/>
+    <hyperlink ref="I23" r:id="rId16" xr:uid="{B076DE21-93CA-456A-93E6-3F7ECFEFCDC8}"/>
+    <hyperlink ref="I24" r:id="rId17" xr:uid="{D3DA3E70-F9F6-4293-A8E1-A23D554445B9}"/>
+    <hyperlink ref="I25" r:id="rId18" xr:uid="{01B3BB38-DB11-4D03-8979-C8508B8EE24A}"/>
+    <hyperlink ref="I26" r:id="rId19" xr:uid="{DBE10F2C-6141-4543-A042-0C6B2E89409D}"/>
+    <hyperlink ref="I27" r:id="rId20" xr:uid="{389BC9E7-3512-422F-8A9B-0ACBC0BC1843}"/>
+    <hyperlink ref="I28" r:id="rId21" xr:uid="{84AC78B4-51E1-43F8-AF1B-D4DED83897CA}"/>
+    <hyperlink ref="I29" r:id="rId22" xr:uid="{A7FF3621-1B77-447D-AD85-D058AB074E44}"/>
+    <hyperlink ref="I30" r:id="rId23" xr:uid="{B70F3549-78E1-468B-AC76-EEFCA62CCB48}"/>
+    <hyperlink ref="I31" r:id="rId24" xr:uid="{1064A03B-6DCC-46EC-8B5F-1550B8330A4E}"/>
+    <hyperlink ref="I32" r:id="rId25" xr:uid="{4D2D5020-62B3-476D-AE9D-FD84ECE76930}"/>
+    <hyperlink ref="I33" r:id="rId26" xr:uid="{C899A6B4-8E78-46F5-89C2-40991CB387F3}"/>
+    <hyperlink ref="I2" r:id="rId27" xr:uid="{E9275459-E794-41B1-BA32-6AD412BA8DAC}"/>
+    <hyperlink ref="I3" r:id="rId28" xr:uid="{36BB8077-2478-44B1-8F15-0EFC15848B7D}"/>
+    <hyperlink ref="I4" r:id="rId29" xr:uid="{20FF2FC4-B8C4-484E-BEFC-CA6EC8787D1F}"/>
+    <hyperlink ref="I5" r:id="rId30" xr:uid="{F12C3BC5-1AB1-401F-9E78-C6DC68ED9050}"/>
+    <hyperlink ref="I6" r:id="rId31" xr:uid="{CE370EDF-98B0-4312-B655-C9774E1F864B}"/>
+    <hyperlink ref="I35" r:id="rId32" xr:uid="{51AD6CB4-8943-4CBF-A20A-EEAD592DB791}"/>
+    <hyperlink ref="I36" r:id="rId33" xr:uid="{24C1F3A6-56AE-4AD2-B526-13363E5F7A1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -2312,15 +2514,15 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739EFC30-6497-498D-8E52-09F48474DC0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="5865749c-44ff-4e71-baee-e2f7c4060fd3"/>
+    <ds:schemaRef ds:uri="28ca62f2-5858-431f-b1db-7d5ec75cce37"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="28ca62f2-5858-431f-b1db-7d5ec75cce37"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Deliverables/ReferencesInfo.xlsx
+++ b/Deliverables/ReferencesInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\OneDrive\Ambiente de Trabalho\ISA\Thesis\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E93E83D-F787-44C6-973E-86DCCA1410A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C7EFC3-FE86-4359-BEAB-E9AD491C5820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{042BECF4-7FB2-421B-AE05-271994ED787D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="209">
   <si>
     <t>Name</t>
   </si>
@@ -1048,6 +1048,37 @@
   </si>
   <si>
     <t>only relevant to see statistical analyses of PM2.5 from wildfire smoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.scitotenv.2022.160446 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Predicting hourly PM2.5 concentrations in wildfire-prone areas using a SpatioTemporal Transformer model </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Manzhu Yu</t>
+    </r>
+  </si>
+  <si>
+    <t>Enhance the accurary of PM2.5 predictions during wildfire events by developing the SpatioTemporal Transformer model. It is designed to capture complex spatial and temporal dependencies influencing air quality in wildfire-prone areas</t>
+  </si>
+  <si>
+    <t>ST-Transformer model incorporates various critical factors affecting PM2.5 concentrations, including: wilfire perimeter and intensity; meteorological conditions; road trafic data; historical PM2.5 measurements; temporal indicators from the preceding 24 hours</t>
+  </si>
+  <si>
+    <t>The model was trained using data from US Environmental Protection Agency's air quality monitoring stations in LA area. It employs a sparse attention mechanism to focus on the most relevant contextual information across spatial, temporal and variable dimensions, enabling it to effectively capture abrupt changes in PM2.5 levels during wildfire incidents</t>
+  </si>
+  <si>
+    <t>Comparative analyses demonstrated that the ST-Transformer outperforms existing time series forecasting methods, particularly in detecting sudden spikes in PM2.5 concentrations associated with wildfires. The model's attention matrix also provides interpretative insights into the complex dependencies among variables, indicating its capability to distinguish between wildfire-related and non-wildfire-related pollution events</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1110,6 +1141,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1446,11 +1480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1966D135-952B-451C-BCD8-1ECB1677C3AC}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2252,6 +2286,29 @@
       </c>
       <c r="I36" s="3" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2292,9 +2349,10 @@
     <hyperlink ref="I6" r:id="rId31" xr:uid="{CE370EDF-98B0-4312-B655-C9774E1F864B}"/>
     <hyperlink ref="I35" r:id="rId32" xr:uid="{51AD6CB4-8943-4CBF-A20A-EEAD592DB791}"/>
     <hyperlink ref="I36" r:id="rId33" xr:uid="{24C1F3A6-56AE-4AD2-B526-13363E5F7A1F}"/>
+    <hyperlink ref="I37" r:id="rId34" xr:uid="{613606AD-068A-4FC1-9447-0BC4AB700696}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -2514,14 +2572,14 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739EFC30-6497-498D-8E52-09F48474DC0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="5865749c-44ff-4e71-baee-e2f7c4060fd3"/>
     <ds:schemaRef ds:uri="28ca62f2-5858-431f-b1db-7d5ec75cce37"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Deliverables/ReferencesInfo.xlsx
+++ b/Deliverables/ReferencesInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\OneDrive\Ambiente de Trabalho\ISA\Thesis\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C7EFC3-FE86-4359-BEAB-E9AD491C5820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03594D-02FF-4959-AF08-F316129D5ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{042BECF4-7FB2-421B-AE05-271994ED787D}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{042BECF4-7FB2-421B-AE05-271994ED787D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1482,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1966D135-952B-451C-BCD8-1ECB1677C3AC}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,23 +2357,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5865749c-44ff-4e71-baee-e2f7c4060fd3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E4994B514E1854BB9B7A534CB298CD4" ma:contentTypeVersion="9" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="7863902198e74cb03608d81cfa1069b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5865749c-44ff-4e71-baee-e2f7c4060fd3" xmlns:ns4="28ca62f2-5858-431f-b1db-7d5ec75cce37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cac7df1ed4bcc9895eb35fb78bc270c3" ns3:_="" ns4:_="">
     <xsd:import namespace="5865749c-44ff-4e71-baee-e2f7c4060fd3"/>
@@ -2568,32 +2551,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739EFC30-6497-498D-8E52-09F48474DC0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5865749c-44ff-4e71-baee-e2f7c4060fd3"/>
-    <ds:schemaRef ds:uri="28ca62f2-5858-431f-b1db-7d5ec75cce37"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0561D5A2-A855-4AF7-90E8-1AC33004055C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5865749c-44ff-4e71-baee-e2f7c4060fd3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB52BA6-8E27-4073-A34C-31CCC3D8B836}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2610,4 +2585,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0561D5A2-A855-4AF7-90E8-1AC33004055C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739EFC30-6497-498D-8E52-09F48474DC0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5865749c-44ff-4e71-baee-e2f7c4060fd3"/>
+    <ds:schemaRef ds:uri="28ca62f2-5858-431f-b1db-7d5ec75cce37"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>